--- a/spec/fixtures/files/届出一覧表.xlsx
+++ b/spec/fixtures/files/届出一覧表.xlsx
@@ -152,7 +152,7 @@
     <t>保険薬剤師としての勤務経験を５年以上有する薬剤師が勤務・抗悪性腫瘍剤の化学療法に係る研修会に年１回以上参加している</t>
   </si>
   <si>
-    <t>別に厚生労働大臣が定める患者に対して、当該患者の副作用の発現状況、治療計画等を文書により確認し、必要な薬学的管理及び 指導が行われた上で、当該患者の同意を得て、悪性腫瘍の治療に係る薬剤の投薬又 は注射に関し、電話等により、その服用状況、副作用の有無等について当該患者に確認し、保険医療機関に必要な情報を文書により提供された場合には、月1回に限り100点が所定点数に加算される。\nこの場合に おいて、服薬情報等提供料（20 ~ 50 点）は算定されない。</t>
+    <t>別に厚生労働大臣が定める患者に対して、当該患者の副作用の発現状況、治療計画等を文書により確認し、必要な薬学的管理及び 指導が行われた上で、当該患者の同意を得て、悪性腫瘍の治療に係る薬剤の投薬又 は注射に関し、電話等により、その服用状況、副作用の有無等について当該患者に確認し、保険医療機関に必要な情報を文書により提供された場合には、月1回に限り100点が所定点数に加算される。&lt;br&gt;この場合に おいて、服薬情報等提供料（20 ~ 50 点）は算定されない。</t>
   </si>
   <si>
     <t>かりつけ薬剤師指導料</t>
@@ -164,7 +164,7 @@
     <t>かかりつけ薬剤師に服薬状況を把握しうえでの指導をしてもらえる</t>
   </si>
   <si>
-    <t>かかりつけ薬剤師が患者の同意を得て、必要な指導等を行った場合に、処方箋受付１回につき所定点数が算定される。\n服薬管理指導料を算定している患者については、算定されない。\nまた、在宅患者訪問薬剤管理指導料を算定して いる患者については、当該患者の薬学的管理指導計画に係る疾病と別の疾病又は 負傷に係る臨時の投薬が行われた場合を除き、算定されない。</t>
+    <t>かかりつけ薬剤師が患者の同意を得て、必要な指導等を行った場合に、処方箋受付１回につき所定点数が算定される。&lt;br&gt;服薬管理指導料を算定している患者については、算定されない。&lt;br&gt;また、在宅患者訪問薬剤管理指導料を算定して いる患者については、当該患者の薬学的管理指導計画に係る疾病と別の疾病又は 負傷に係る臨時の投薬が行われた場合を除き、算定されない。</t>
   </si>
   <si>
     <t>かかりつけ薬剤師包括管理料</t>
@@ -173,7 +173,7 @@
     <t>９１点</t>
   </si>
   <si>
-    <t>地域包括診 療加算若しくは認知症地域包括診療加算、地域包括診療料又は認知症地域包括診療料を算定している患者の同意を得て、必要な指導等が行われた場合に、処方箋受付１回につき所定点数を算定される。\nこの場合、一部の規定する費用は当該点数に含まれるものとする。\n 服薬管理指導料又はかかりつけ薬剤師指導料を算定している患者については、算定されない。</t>
+    <t>地域包括診 療加算若しくは認知症地域包括診療加算、地域包括診療料又は認知症地域包括診療料を算定している患者の同意を得て、必要な指導等が行われた場合に、処方箋受付１回につき所定点数を算定される。&lt;br&gt;この場合、一部の規定する費用は当該点数に含まれるものとする。&lt;br&gt; 服薬管理指導料又はかかりつけ薬剤師指導料を算定している患者については、算定されない。</t>
   </si>
   <si>
     <t>在宅患者訪問薬剤管理指導料</t>
@@ -182,7 +182,7 @@
     <t>２９０点〜６５０点</t>
   </si>
   <si>
-    <t>１ 単一建物診療患者が１人の場合 650点 \n２ 単一建物診療患者が２人以上９人以下の場合 320点\n３ １及び２以外の場合 290点\n\n在宅で療養を行っている患者であって通院が困難なものに対して、医師の指示に基づき、保険薬剤師が薬学的管理指導計画を策定され、患家を訪問して、薬学的管理及び指導が行われた場合に、単一建物診療患者（当該患者が居住する建物に居住する者のうち、当該保険薬局が訪問薬剤管理指導を実施しているものをいう。）の人数に従い、患者１人につき月４回（末期の悪性腫瘍の患者 及び中心静脈栄養法の対象患者にあっては、週２回かつ月８回）に限り算定される 。\nこの場合において、１から３までを合わせて保険薬剤師１人につき週40回に限り算定される。\n 在宅で療養を行っている患者であって通院が困難なものに対して、情報通信機器を用いた薬学的管理及び指導（訪問薬剤管理指導と同日に行う場合を除く。） を行った場合に、上の規定にかかわらず、在宅患者オンライン薬剤管理指導料 として、患者１人につき、１から３までと合わせて月４回（末期の悪性腫瘍の患 者及び中心静脈栄養法の対象患者にあっては、週２回かつ月８回）に限り59点が算定される。\nまた、保険薬剤師１人につき、１から３までと合わせて週40回に限り算定される。\nただし、保険薬局の所在地と患家の所在地との距離が16キロメ－トルを超えた場合にあ っては、特殊の事情があった場合を除き算定されない。</t>
+    <t>１ 単一建物診療患者が１人の場合 650点 &lt;br&gt;２ 単一建物診療患者が２人以上９人以下の場合 320点&lt;br&gt;３ １及び２以外の場合 290点&lt;br&gt; &lt;br&gt;在宅で療養を行っている患者であって通院が困難なものに対して、医師の指示に基づき、保険薬剤師が薬学的管理指導計画を策定され、患家を訪問して、薬学的管理及び指導が行われた場合に、単一建物診療患者（当該患者が居住する建物に居住する者のうち、当該保険薬局が訪問薬剤管理指導を実施しているものをいう。）の人数に従い、患者１人につき月４回（末期の悪性腫瘍の患者 及び中心静脈栄養法の対象患者にあっては、週２回かつ月８回）に限り算定される 。&lt;br&gt;この場合において、１から３までを合わせて保険薬剤師１人につき週40回に限り算定される。&lt;br&gt; 在宅で療養を行っている患者であって通院が困難なものに対して、情報通信機器を用いた薬学的管理及び指導（訪問薬剤管理指導と同日に行う場合を除く。） を行った場合に、上の規定にかかわらず、在宅患者オンライン薬剤管理指導料 として、患者１人につき、１から３までと合わせて月４回（末期の悪性腫瘍の患者及び中心静脈栄養法の対象患者にあっては、週２回かつ月８回）に限り59点が算定される。&lt;br&gt;また、保険薬剤師１人につき、１から３までと合わせて週40回に限り算定される。&lt;br&gt;ただし、保険薬局の所在地と患家の所在地との距離が16キロメ－トルを超えた場合にあ っては、特殊の事情があった場合を除き算定されない。</t>
   </si>
   <si>
     <t>在宅患者医療用麻薬持続注射療法加算</t>
@@ -582,10 +582,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1159,10 +1159,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1798,7 +1798,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" ht="16.6" customHeight="1">
+    <row r="24" ht="94" customHeight="1">
       <c r="A24" s="5">
         <v>20</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" ht="16.6" customHeight="1">
+    <row r="26" ht="25.2" customHeight="1">
       <c r="A26" s="5">
         <v>22</v>
       </c>

--- a/spec/fixtures/files/届出一覧表.xlsx
+++ b/spec/fixtures/files/届出一覧表.xlsx
@@ -182,7 +182,7 @@
     <t>２９０点〜６５０点</t>
   </si>
   <si>
-    <t>１ 単一建物診療患者が１人の場合 650点 &lt;br&gt;２ 単一建物診療患者が２人以上９人以下の場合 320点&lt;br&gt;３ １及び２以外の場合 290点&lt;br&gt; &lt;br&gt;在宅で療養を行っている患者であって通院が困難なものに対して、医師の指示に基づき、保険薬剤師が薬学的管理指導計画を策定され、患家を訪問して、薬学的管理及び指導が行われた場合に、単一建物診療患者（当該患者が居住する建物に居住する者のうち、当該保険薬局が訪問薬剤管理指導を実施しているものをいう。）の人数に従い、患者１人につき月４回（末期の悪性腫瘍の患者 及び中心静脈栄養法の対象患者にあっては、週２回かつ月８回）に限り算定される 。&lt;br&gt;この場合において、１から３までを合わせて保険薬剤師１人につき週40回に限り算定される。&lt;br&gt; 在宅で療養を行っている患者であって通院が困難なものに対して、情報通信機器を用いた薬学的管理及び指導（訪問薬剤管理指導と同日に行う場合を除く。） を行った場合に、上の規定にかかわらず、在宅患者オンライン薬剤管理指導料 として、患者１人につき、１から３までと合わせて月４回（末期の悪性腫瘍の患者及び中心静脈栄養法の対象患者にあっては、週２回かつ月８回）に限り59点が算定される。&lt;br&gt;また、保険薬剤師１人につき、１から３までと合わせて週40回に限り算定される。&lt;br&gt;ただし、保険薬局の所在地と患家の所在地との距離が16キロメ－トルを超えた場合にあ っては、特殊の事情があった場合を除き算定されない。</t>
+    <t>１ 単一建物診療患者が１人の場合 650点 &lt;br&gt;２ 単一建物診療患者が２人以上９人以下の場合 320点&lt;br&gt;３ １及び２以外の場合 290点&lt;br&gt; &lt;br&gt;在宅で療養を行っている患者であって通院が困難なものに対して、医師の指示に基づき、保険薬剤師が薬学的管理指導計画を策定され、患家を訪問して、薬学的管理及び指導が行われた場合に、単一建物診療患者の人数に従い、患者１人につき月４回（一部対象患者にあっては、週２回かつ月８回）に限り算定される 。&lt;br&gt; 在宅で療養を行っている患者であって通院が困難なものに対して、情報通信機器を用いた薬学的管理及び指導（訪問薬剤管理指導と同日に 行う場合を除く。） を行った場合に、上の規定にかかわらず、在宅患者オンライン薬剤管理指導料 として、患者 １人につき、１から３までと合わせて月４回（一部対象患者にあっては、 週２回かつ月８回）に限り59点が算定される。その他詳細は割愛。</t>
   </si>
   <si>
     <t>在宅患者医療用麻薬持続注射療法加算</t>
